--- a/Diccionario_Tienda.xlsx
+++ b/Diccionario_Tienda.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabri\Documentos\INTEC\CLASS\TRIMESTRE MAYO-JULIO 2023\Desarrollo Web\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{30025C1C-9775-4570-962A-CB81589263FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43266679-8120-476A-8436-A5A96A3ADB41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{651A6F36-3FA8-4EC7-93B5-9A6FC19A9126}"/>
+    <workbookView xWindow="3675" yWindow="1140" windowWidth="21600" windowHeight="11835" xr2:uid="{651A6F36-3FA8-4EC7-93B5-9A6FC19A9126}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -35,9 +35,272 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="86">
+  <si>
+    <t>Perfil</t>
+  </si>
+  <si>
+    <t>Atributo</t>
+  </si>
+  <si>
+    <t>Tipo de datos</t>
+  </si>
+  <si>
+    <t>longitud</t>
+  </si>
+  <si>
+    <t>Descripcion</t>
+  </si>
+  <si>
+    <t>Llave</t>
+  </si>
+  <si>
+    <t>Primaria</t>
+  </si>
+  <si>
+    <t>Perfil_id</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Foranea</t>
+  </si>
+  <si>
+    <t>Tipo_perfil_id</t>
+  </si>
+  <si>
+    <t>Nombre</t>
+  </si>
+  <si>
+    <t>Nvarchar</t>
+  </si>
+  <si>
+    <t>Apellidos</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Numero</t>
+  </si>
+  <si>
+    <t>Valores nulos</t>
+  </si>
+  <si>
+    <t>Correo</t>
+  </si>
+  <si>
+    <t>Contraseña</t>
+  </si>
+  <si>
+    <t>Fecha_Nacimiento</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>ActivacionDP</t>
+  </si>
+  <si>
+    <t>Si</t>
+  </si>
+  <si>
+    <t>Membresia</t>
+  </si>
+  <si>
+    <t>Fecha_creacion</t>
+  </si>
+  <si>
+    <t>Datetime</t>
+  </si>
+  <si>
+    <t>Int</t>
+  </si>
+  <si>
+    <t>Bit</t>
+  </si>
+  <si>
+    <t>Cuenta</t>
+  </si>
+  <si>
+    <t>Cuenta_id</t>
+  </si>
+  <si>
+    <t>MetodoP_id</t>
+  </si>
+  <si>
+    <t>Direccion_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cuenta </t>
+  </si>
+  <si>
+    <t>Fecha_actualizacion</t>
+  </si>
+  <si>
+    <t>Pedido</t>
+  </si>
+  <si>
+    <t>Pedido_id</t>
+  </si>
+  <si>
+    <t>Producto_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pedido </t>
+  </si>
+  <si>
+    <t>Narchar</t>
+  </si>
+  <si>
+    <t>Precio_total</t>
+  </si>
+  <si>
+    <t>Decimal</t>
+  </si>
+  <si>
+    <t>10,2</t>
+  </si>
+  <si>
+    <t>Precio_envio</t>
+  </si>
+  <si>
+    <t>ITBIS</t>
+  </si>
+  <si>
+    <t>Descuento</t>
+  </si>
+  <si>
+    <t>Fpedido_realizado</t>
+  </si>
+  <si>
+    <t>FPEDIDO_enviado</t>
+  </si>
+  <si>
+    <t>Reembolsado</t>
+  </si>
+  <si>
+    <t>Direccion</t>
+  </si>
+  <si>
+    <t>Pais_id</t>
+  </si>
+  <si>
+    <t>Ciudad_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ubicación </t>
+  </si>
+  <si>
+    <t>Pais</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nvarchar </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pais </t>
+  </si>
+  <si>
+    <t>Ciudad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ciudad </t>
+  </si>
+  <si>
+    <t>Producto</t>
+  </si>
+  <si>
+    <t>Categoria_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Producto </t>
+  </si>
+  <si>
+    <t>Precio</t>
+  </si>
+  <si>
+    <t>Tipo_perfil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tipo_perfil </t>
+  </si>
+  <si>
+    <t>Vendedor</t>
+  </si>
+  <si>
+    <t>Vendedor_id</t>
+  </si>
+  <si>
+    <t>Informacion</t>
+  </si>
+  <si>
+    <t>Comentario</t>
+  </si>
+  <si>
+    <t>Comentario_id</t>
+  </si>
+  <si>
+    <t>Estrella</t>
+  </si>
+  <si>
+    <t>Smallint</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comentario </t>
+  </si>
+  <si>
+    <t>Metodo_Pago</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Metodo </t>
+  </si>
+  <si>
+    <t>Categoria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Categoria </t>
+  </si>
+  <si>
+    <t>Subcategoria</t>
+  </si>
+  <si>
+    <t>Subcategoria_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Subcategoria </t>
+  </si>
+  <si>
+    <t>Cupones</t>
+  </si>
+  <si>
+    <t>Cupones_id</t>
+  </si>
+  <si>
+    <t>Codigo</t>
+  </si>
+  <si>
+    <t>3,2</t>
+  </si>
+  <si>
+    <t>Activado</t>
+  </si>
+  <si>
+    <t>Fecha_inicio</t>
+  </si>
+  <si>
+    <t>Fecha_fin</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -45,16 +308,61 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -62,12 +370,346 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -382,12 +1024,1377 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A37F18E-A075-46F7-8A76-AC1CF288C297}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:M59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A54" sqref="A54:F54"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" style="2"/>
+    <col min="8" max="8" width="8.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.28515625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="12.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="11.42578125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="L1" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="M1" s="20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" s="1" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="26"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="21"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="21"/>
+    </row>
+    <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="17"/>
+      <c r="H3" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="17"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="5"/>
+      <c r="H4" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="J4" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="K4" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="L4" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="M4" s="14"/>
+    </row>
+    <row r="5" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="8"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="K5" s="10">
+        <v>10</v>
+      </c>
+      <c r="L5" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="M5" s="11"/>
+    </row>
+    <row r="6" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="6"/>
+      <c r="B6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="7">
+        <v>50</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="8"/>
+    </row>
+    <row r="7" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="6"/>
+      <c r="B7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="7">
+        <v>50</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="8"/>
+      <c r="H7" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="17"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="6"/>
+      <c r="B8" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="7">
+        <v>13</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="8"/>
+      <c r="H8" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M8" s="8"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="6"/>
+      <c r="B9" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="7">
+        <v>100</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="8"/>
+      <c r="H9" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M9" s="8"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="6"/>
+      <c r="B10" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="7">
+        <v>16</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="8"/>
+      <c r="H10" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M10" s="8"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="6"/>
+      <c r="B11" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="8"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M11" s="8"/>
+    </row>
+    <row r="12" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="6"/>
+      <c r="B12" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="7">
+        <v>1</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="8"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="J12" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="K12" s="10">
+        <v>200</v>
+      </c>
+      <c r="L12" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="M12" s="11"/>
+    </row>
+    <row r="13" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="6"/>
+      <c r="B13" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" s="8"/>
+    </row>
+    <row r="14" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="9"/>
+      <c r="B14" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="11"/>
+      <c r="H14" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="17"/>
+    </row>
+    <row r="15" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H15" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="I15" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="J15" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="K15" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="L15" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="M15" s="14"/>
+    </row>
+    <row r="16" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="17"/>
+      <c r="H16" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M16" s="8"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" s="14"/>
+      <c r="H17" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M17" s="8"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18" s="8"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K18" s="7">
+        <v>5</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M18" s="8"/>
+    </row>
+    <row r="19" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19" s="8"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="J19" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="K19" s="10">
+        <v>200</v>
+      </c>
+      <c r="L19" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="M19" s="11"/>
+    </row>
+    <row r="20" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" s="8"/>
+    </row>
+    <row r="21" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="6"/>
+      <c r="B21" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="7">
+        <v>5</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F21" s="8"/>
+      <c r="H21" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="I21" s="16"/>
+      <c r="J21" s="16"/>
+      <c r="K21" s="16"/>
+      <c r="L21" s="16"/>
+      <c r="M21" s="17"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="6"/>
+      <c r="B22" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" s="8"/>
+      <c r="H22" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="I22" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="J22" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="K22" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="L22" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="M22" s="14"/>
+    </row>
+    <row r="23" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="9"/>
+      <c r="B23" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F23" s="11"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="J23" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="K23" s="10">
+        <v>25</v>
+      </c>
+      <c r="L23" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="M23" s="11"/>
+    </row>
+    <row r="24" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="25" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="17"/>
+      <c r="H25" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="I25" s="16"/>
+      <c r="J25" s="16"/>
+      <c r="K25" s="16"/>
+      <c r="L25" s="16"/>
+      <c r="M25" s="17"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F26" s="14"/>
+      <c r="H26" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="I26" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="J26" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="K26" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="L26" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="M26" s="14"/>
+    </row>
+    <row r="27" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F27" s="8"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="J27" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="K27" s="10">
+        <v>50</v>
+      </c>
+      <c r="L27" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="M27" s="11"/>
+    </row>
+    <row r="28" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F28" s="8"/>
+    </row>
+    <row r="29" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F29" s="8"/>
+      <c r="H29" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="I29" s="16"/>
+      <c r="J29" s="16"/>
+      <c r="K29" s="16"/>
+      <c r="L29" s="16"/>
+      <c r="M29" s="17"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F30" s="8"/>
+      <c r="H30" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="I30" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="J30" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="K30" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="L30" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="M30" s="14"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" s="6"/>
+      <c r="B31" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D31" s="7">
+        <v>6</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F31" s="8"/>
+      <c r="H31" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I31" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M31" s="8"/>
+    </row>
+    <row r="32" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="6"/>
+      <c r="B32" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F32" s="8"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="J32" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="K32" s="10">
+        <v>50</v>
+      </c>
+      <c r="L32" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="M32" s="11"/>
+    </row>
+    <row r="33" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="6"/>
+      <c r="B33" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F33" s="8"/>
+    </row>
+    <row r="34" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="6"/>
+      <c r="B34" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F34" s="8"/>
+      <c r="H34" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="I34" s="16"/>
+      <c r="J34" s="16"/>
+      <c r="K34" s="16"/>
+      <c r="L34" s="16"/>
+      <c r="M34" s="17"/>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35" s="6"/>
+      <c r="B35" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F35" s="8"/>
+      <c r="H35" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="I35" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="J35" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="K35" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="L35" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="M35" s="14"/>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A36" s="6"/>
+      <c r="B36" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F36" s="8"/>
+      <c r="H36" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I36" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="J36" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="L36" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M36" s="8"/>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A37" s="6"/>
+      <c r="B37" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F37" s="8"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="J37" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="L37" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M37" s="8"/>
+    </row>
+    <row r="38" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="9"/>
+      <c r="B38" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D38" s="10">
+        <v>1</v>
+      </c>
+      <c r="E38" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F38" s="11"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="J38" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="L38" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M38" s="8"/>
+    </row>
+    <row r="39" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H39" s="6"/>
+      <c r="I39" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="J39" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="K39" s="7">
+        <v>1</v>
+      </c>
+      <c r="L39" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M39" s="8"/>
+    </row>
+    <row r="40" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="B40" s="16"/>
+      <c r="C40" s="16"/>
+      <c r="D40" s="16"/>
+      <c r="E40" s="16"/>
+      <c r="F40" s="17"/>
+      <c r="H40" s="6"/>
+      <c r="I40" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="J40" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="K40" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="L40" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M40" s="8"/>
+    </row>
+    <row r="41" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B41" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C41" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D41" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E41" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F41" s="14"/>
+      <c r="H41" s="9"/>
+      <c r="I41" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="J41" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="K41" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="L41" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="M41" s="11"/>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A42" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D42" s="7">
+        <v>2</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F42" s="8"/>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A43" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D43" s="7">
+        <v>2</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F43" s="8"/>
+    </row>
+    <row r="44" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="9"/>
+      <c r="B44" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D44" s="10">
+        <v>200</v>
+      </c>
+      <c r="E44" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F44" s="11"/>
+    </row>
+    <row r="45" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="46" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="B46" s="16"/>
+      <c r="C46" s="16"/>
+      <c r="D46" s="16"/>
+      <c r="E46" s="16"/>
+      <c r="F46" s="17"/>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A47" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D47" s="7">
+        <v>2</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F47" s="7"/>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A48" s="7"/>
+      <c r="B48" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D48" s="7">
+        <v>100</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F48" s="7"/>
+    </row>
+    <row r="49" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="50" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="B50" s="23"/>
+      <c r="C50" s="23"/>
+      <c r="D50" s="23"/>
+      <c r="E50" s="23"/>
+      <c r="F50" s="24"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B51" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C51" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D51" s="13">
+        <v>2</v>
+      </c>
+      <c r="E51" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F51" s="14"/>
+    </row>
+    <row r="52" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="9"/>
+      <c r="B52" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C52" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D52" s="10">
+        <v>100</v>
+      </c>
+      <c r="E52" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F52" s="11"/>
+    </row>
+    <row r="53" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="54" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="B54" s="16"/>
+      <c r="C54" s="16"/>
+      <c r="D54" s="16"/>
+      <c r="E54" s="16"/>
+      <c r="F54" s="17"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B55" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C55" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D55" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E55" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F55" s="14"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D56" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E56" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F56" s="8"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="6"/>
+      <c r="B57" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D57" s="7">
+        <v>100</v>
+      </c>
+      <c r="E57" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F57" s="8"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="6"/>
+      <c r="B58" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D58" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E58" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F58" s="8"/>
+    </row>
+    <row r="59" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="9"/>
+      <c r="B59" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C59" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D59" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E59" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F59" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="26">
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="A40:F40"/>
+    <mergeCell ref="A46:F46"/>
+    <mergeCell ref="A50:F50"/>
+    <mergeCell ref="A54:F54"/>
+    <mergeCell ref="H34:M34"/>
+    <mergeCell ref="H7:M7"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="H3:M3"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="H14:M14"/>
+    <mergeCell ref="H21:M21"/>
+    <mergeCell ref="H25:M25"/>
+    <mergeCell ref="H29:M29"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Diccionario_Tienda.xlsx
+++ b/Diccionario_Tienda.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabri\Documentos\INTEC\CLASS\TRIMESTRE MAYO-JULIO 2023\Desarrollo Web\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Intec\Desarrollo web\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70255B7C-1E0F-463B-8FE2-6D812A6E9265}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8315C17-B173-4C2A-9E42-2D8EEEBFC3E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{651A6F36-3FA8-4EC7-93B5-9A6FC19A9126}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{651A6F36-3FA8-4EC7-93B5-9A6FC19A9126}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="151">
   <si>
     <t>Perfil</t>
   </si>
@@ -443,9 +443,6 @@
     <t>Identidad de la tabla Metodo_Pago</t>
   </si>
   <si>
-    <t>Identidad de la tabla Cuenta</t>
-  </si>
-  <si>
     <t>Identidad de la tabla Perfil</t>
   </si>
   <si>
@@ -477,6 +474,21 @@
   </si>
   <si>
     <t>Fecha de fin del cupon</t>
+  </si>
+  <si>
+    <t>Codigo_Postal</t>
+  </si>
+  <si>
+    <t>Codigo postal de la ubicacion</t>
+  </si>
+  <si>
+    <t>Indentidad de comentario</t>
+  </si>
+  <si>
+    <t>ComentarioProducto_id</t>
+  </si>
+  <si>
+    <t>Comentario_Producto</t>
   </si>
 </sst>
 </file>
@@ -813,7 +825,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -863,55 +875,64 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1228,102 +1249,102 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A37F18E-A075-46F7-8A76-AC1CF288C297}">
-  <dimension ref="A1:M59"/>
+  <dimension ref="A1:M60"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J12" sqref="J12"/>
+      <selection pane="bottomLeft" activeCell="I43" sqref="I43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="53.7109375" style="31" customWidth="1"/>
-    <col min="7" max="7" width="3.7109375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.28515625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="12.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="42.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="11.42578125" style="2"/>
+    <col min="1" max="1" width="8.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="53.6640625" style="23" customWidth="1"/>
+    <col min="7" max="7" width="3.6640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="8.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.21875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="19.33203125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="12.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="42.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="11.44140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:13" s="1" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A1" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="F1" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="H1" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="I1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="19" t="s">
+      <c r="J1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="19" t="s">
+      <c r="K1" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="19" t="s">
+      <c r="L1" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="M1" s="21" t="s">
+      <c r="M1" s="31" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="1" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="18"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="27"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="22"/>
-    </row>
-    <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="14" t="s">
+    <row r="2" spans="1:13" s="1" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="34"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="36"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="32"/>
+    </row>
+    <row r="3" spans="1:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="16"/>
-      <c r="H3" s="14" t="s">
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="28"/>
+      <c r="H3" s="26" t="s">
         <v>87</v>
       </c>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="16"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
+      <c r="L3" s="27"/>
+      <c r="M3" s="28"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -1339,7 +1360,7 @@
       <c r="E4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="28" t="s">
+      <c r="F4" s="20" t="s">
         <v>85</v>
       </c>
       <c r="H4" s="11" t="s">
@@ -1361,7 +1382,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>10</v>
       </c>
@@ -1377,7 +1398,7 @@
       <c r="E5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="29" t="s">
+      <c r="F5" s="21" t="s">
         <v>130</v>
       </c>
       <c r="H5" s="8"/>
@@ -1397,7 +1418,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="5"/>
       <c r="B6" s="6" t="s">
         <v>12</v>
@@ -1411,11 +1432,11 @@
       <c r="E6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="29" t="s">
+      <c r="F6" s="21" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="5"/>
       <c r="B7" s="6" t="s">
         <v>14</v>
@@ -1429,19 +1450,19 @@
       <c r="E7" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="29" t="s">
+      <c r="F7" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="H7" s="14" t="s">
+      <c r="H7" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="16"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I7" s="27"/>
+      <c r="J7" s="27"/>
+      <c r="K7" s="27"/>
+      <c r="L7" s="27"/>
+      <c r="M7" s="28"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
       <c r="B8" s="6" t="s">
         <v>16</v>
@@ -1455,7 +1476,7 @@
       <c r="E8" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="29" t="s">
+      <c r="F8" s="21" t="s">
         <v>90</v>
       </c>
       <c r="H8" s="5" t="s">
@@ -1477,7 +1498,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="5"/>
       <c r="B9" s="6" t="s">
         <v>18</v>
@@ -1491,7 +1512,7 @@
       <c r="E9" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="29" t="s">
+      <c r="F9" s="21" t="s">
         <v>91</v>
       </c>
       <c r="H9" s="5" t="s">
@@ -1513,7 +1534,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="5"/>
       <c r="B10" s="6" t="s">
         <v>19</v>
@@ -1527,7 +1548,7 @@
       <c r="E10" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="29" t="s">
+      <c r="F10" s="21" t="s">
         <v>92</v>
       </c>
       <c r="H10" s="5" t="s">
@@ -1549,7 +1570,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="5"/>
       <c r="B11" s="6" t="s">
         <v>20</v>
@@ -1563,7 +1584,7 @@
       <c r="E11" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="29" t="s">
+      <c r="F11" s="21" t="s">
         <v>93</v>
       </c>
       <c r="H11" s="5"/>
@@ -1583,7 +1604,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="5"/>
       <c r="B12" s="6" t="s">
         <v>22</v>
@@ -1597,7 +1618,7 @@
       <c r="E12" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F12" s="29" t="s">
+      <c r="F12" s="21" t="s">
         <v>95</v>
       </c>
       <c r="H12" s="8"/>
@@ -1617,7 +1638,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="5"/>
       <c r="B13" s="6" t="s">
         <v>24</v>
@@ -1631,11 +1652,11 @@
       <c r="E13" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F13" s="29" t="s">
+      <c r="F13" s="21" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="8"/>
       <c r="B14" s="9" t="s">
         <v>25</v>
@@ -1649,19 +1670,19 @@
       <c r="E14" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F14" s="30" t="s">
+      <c r="F14" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="H14" s="14" t="s">
+      <c r="H14" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="I14" s="15"/>
-      <c r="J14" s="15"/>
-      <c r="K14" s="15"/>
-      <c r="L14" s="15"/>
-      <c r="M14" s="16"/>
-    </row>
-    <row r="15" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I14" s="27"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="27"/>
+      <c r="L14" s="27"/>
+      <c r="M14" s="28"/>
+    </row>
+    <row r="15" spans="1:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="H15" s="11" t="s">
         <v>6</v>
       </c>
@@ -1681,20 +1702,20 @@
         <v>126</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="14" t="s">
+    <row r="16" spans="1:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="16"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="28"/>
       <c r="H16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="J16" s="6" t="s">
         <v>27</v>
@@ -1706,10 +1727,10 @@
         <v>15</v>
       </c>
       <c r="M16" s="7" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="11" t="s">
         <v>6</v>
       </c>
@@ -1725,7 +1746,7 @@
       <c r="E17" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="F17" s="32" t="s">
+      <c r="F17" s="24" t="s">
         <v>86</v>
       </c>
       <c r="H17" s="5" t="s">
@@ -1744,10 +1765,10 @@
         <v>15</v>
       </c>
       <c r="M17" s="7" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>10</v>
       </c>
@@ -1763,7 +1784,7 @@
       <c r="E18" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F18" s="29" t="s">
+      <c r="F18" s="21" t="s">
         <v>117</v>
       </c>
       <c r="H18" s="5"/>
@@ -1780,10 +1801,10 @@
         <v>15</v>
       </c>
       <c r="M18" s="7" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
         <v>10</v>
       </c>
@@ -1799,7 +1820,7 @@
       <c r="E19" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F19" s="29" t="s">
+      <c r="F19" s="21" t="s">
         <v>118</v>
       </c>
       <c r="H19" s="8"/>
@@ -1816,10 +1837,10 @@
         <v>23</v>
       </c>
       <c r="M19" s="10" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
         <v>10</v>
       </c>
@@ -1835,11 +1856,11 @@
       <c r="E20" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F20" s="29" t="s">
+      <c r="F20" s="21" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="5"/>
       <c r="B21" s="6" t="s">
         <v>33</v>
@@ -1853,19 +1874,19 @@
       <c r="E21" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F21" s="29" t="s">
+      <c r="F21" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="H21" s="14" t="s">
+      <c r="H21" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="I21" s="15"/>
-      <c r="J21" s="15"/>
-      <c r="K21" s="15"/>
-      <c r="L21" s="15"/>
-      <c r="M21" s="16"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I21" s="27"/>
+      <c r="J21" s="27"/>
+      <c r="K21" s="27"/>
+      <c r="L21" s="27"/>
+      <c r="M21" s="28"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="5"/>
       <c r="B22" s="6" t="s">
         <v>25</v>
@@ -1879,7 +1900,7 @@
       <c r="E22" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F22" s="29" t="s">
+      <c r="F22" s="21" t="s">
         <v>98</v>
       </c>
       <c r="H22" s="11" t="s">
@@ -1901,7 +1922,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="8"/>
       <c r="B23" s="9" t="s">
         <v>34</v>
@@ -1915,7 +1936,7 @@
       <c r="E23" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F23" s="30" t="s">
+      <c r="F23" s="22" t="s">
         <v>99</v>
       </c>
       <c r="H23" s="8"/>
@@ -1932,29 +1953,29 @@
         <v>15</v>
       </c>
       <c r="M23" s="10" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="25" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="14" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="25" spans="1:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="B25" s="15"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="16"/>
-      <c r="H25" s="14" t="s">
+      <c r="B25" s="27"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="28"/>
+      <c r="H25" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="I25" s="15"/>
-      <c r="J25" s="15"/>
-      <c r="K25" s="15"/>
-      <c r="L25" s="15"/>
-      <c r="M25" s="16"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I25" s="27"/>
+      <c r="J25" s="27"/>
+      <c r="K25" s="27"/>
+      <c r="L25" s="27"/>
+      <c r="M25" s="28"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="11" t="s">
         <v>6</v>
       </c>
@@ -1970,7 +1991,7 @@
       <c r="E26" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="F26" s="32" t="s">
+      <c r="F26" s="24" t="s">
         <v>86</v>
       </c>
       <c r="H26" s="11" t="s">
@@ -1992,7 +2013,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="5" t="s">
         <v>10</v>
       </c>
@@ -2008,7 +2029,7 @@
       <c r="E27" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F27" s="29" t="s">
+      <c r="F27" s="21" t="s">
         <v>131</v>
       </c>
       <c r="H27" s="8"/>
@@ -2025,10 +2046,10 @@
         <v>15</v>
       </c>
       <c r="M27" s="10" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="5" t="s">
         <v>10</v>
       </c>
@@ -2044,11 +2065,11 @@
       <c r="E28" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F28" s="29" t="s">
+      <c r="F28" s="21" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="5" t="s">
         <v>10</v>
       </c>
@@ -2064,19 +2085,19 @@
       <c r="E29" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F29" s="29" t="s">
+      <c r="F29" s="21" t="s">
         <v>134</v>
       </c>
-      <c r="H29" s="14" t="s">
+      <c r="H29" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="I29" s="15"/>
-      <c r="J29" s="15"/>
-      <c r="K29" s="15"/>
-      <c r="L29" s="15"/>
-      <c r="M29" s="16"/>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I29" s="27"/>
+      <c r="J29" s="27"/>
+      <c r="K29" s="27"/>
+      <c r="L29" s="27"/>
+      <c r="M29" s="28"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
         <v>10</v>
       </c>
@@ -2092,7 +2113,7 @@
       <c r="E30" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F30" s="29" t="s">
+      <c r="F30" s="21" t="s">
         <v>132</v>
       </c>
       <c r="H30" s="11" t="s">
@@ -2114,7 +2135,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
         <v>38</v>
@@ -2128,7 +2149,7 @@
       <c r="E31" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F31" s="29" t="s">
+      <c r="F31" s="21" t="s">
         <v>100</v>
       </c>
       <c r="H31" s="5" t="s">
@@ -2150,7 +2171,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="5"/>
       <c r="B32" s="6" t="s">
         <v>40</v>
@@ -2164,7 +2185,7 @@
       <c r="E32" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F32" s="29" t="s">
+      <c r="F32" s="21" t="s">
         <v>101</v>
       </c>
       <c r="H32" s="8"/>
@@ -2181,10 +2202,10 @@
         <v>15</v>
       </c>
       <c r="M32" s="10" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="5"/>
       <c r="B33" s="6" t="s">
         <v>43</v>
@@ -2198,11 +2219,11 @@
       <c r="E33" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F33" s="29" t="s">
+      <c r="F33" s="21" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="34" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="5"/>
       <c r="B34" s="6" t="s">
         <v>44</v>
@@ -2216,19 +2237,19 @@
       <c r="E34" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F34" s="29" t="s">
+      <c r="F34" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="H34" s="14" t="s">
+      <c r="H34" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="I34" s="15"/>
-      <c r="J34" s="15"/>
-      <c r="K34" s="15"/>
-      <c r="L34" s="15"/>
-      <c r="M34" s="16"/>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I34" s="27"/>
+      <c r="J34" s="27"/>
+      <c r="K34" s="27"/>
+      <c r="L34" s="27"/>
+      <c r="M34" s="28"/>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" s="5"/>
       <c r="B35" s="6" t="s">
         <v>45</v>
@@ -2242,7 +2263,7 @@
       <c r="E35" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F35" s="29" t="s">
+      <c r="F35" s="21" t="s">
         <v>104</v>
       </c>
       <c r="H35" s="11" t="s">
@@ -2264,7 +2285,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" s="5"/>
       <c r="B36" s="6" t="s">
         <v>46</v>
@@ -2278,7 +2299,7 @@
       <c r="E36" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F36" s="29" t="s">
+      <c r="F36" s="21" t="s">
         <v>105</v>
       </c>
       <c r="H36" s="5" t="s">
@@ -2300,7 +2321,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" s="5"/>
       <c r="B37" s="6" t="s">
         <v>47</v>
@@ -2314,7 +2335,7 @@
       <c r="E37" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F37" s="29" t="s">
+      <c r="F37" s="21" t="s">
         <v>106</v>
       </c>
       <c r="H37" s="5"/>
@@ -2331,10 +2352,10 @@
         <v>15</v>
       </c>
       <c r="M37" s="7" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="8"/>
       <c r="B38" s="9" t="s">
         <v>48</v>
@@ -2348,7 +2369,7 @@
       <c r="E38" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="F38" s="30" t="s">
+      <c r="F38" s="22" t="s">
         <v>107</v>
       </c>
       <c r="H38" s="5"/>
@@ -2365,10 +2386,10 @@
         <v>15</v>
       </c>
       <c r="M38" s="7" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="H39" s="5"/>
       <c r="I39" s="6" t="s">
         <v>82</v>
@@ -2383,18 +2404,18 @@
         <v>15</v>
       </c>
       <c r="M39" s="7" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="14" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="B40" s="15"/>
-      <c r="C40" s="15"/>
-      <c r="D40" s="15"/>
-      <c r="E40" s="15"/>
-      <c r="F40" s="16"/>
+      <c r="B40" s="27"/>
+      <c r="C40" s="27"/>
+      <c r="D40" s="27"/>
+      <c r="E40" s="27"/>
+      <c r="F40" s="28"/>
       <c r="H40" s="5"/>
       <c r="I40" s="6" t="s">
         <v>83</v>
@@ -2409,10 +2430,10 @@
         <v>15</v>
       </c>
       <c r="M40" s="7" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="11" t="s">
         <v>6</v>
       </c>
@@ -2428,7 +2449,7 @@
       <c r="E41" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="F41" s="32" t="s">
+      <c r="F41" s="24" t="s">
         <v>108</v>
       </c>
       <c r="H41" s="8"/>
@@ -2445,10 +2466,10 @@
         <v>15</v>
       </c>
       <c r="M41" s="10" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
         <v>10</v>
       </c>
@@ -2464,11 +2485,11 @@
       <c r="E42" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F42" s="29" t="s">
+      <c r="F42" s="21" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="5" t="s">
         <v>10</v>
       </c>
@@ -2484,11 +2505,11 @@
       <c r="E43" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F43" s="29" t="s">
+      <c r="F43" s="21" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="44" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="8"/>
       <c r="B44" s="9" t="s">
         <v>52</v>
@@ -2502,215 +2523,308 @@
       <c r="E44" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F44" s="30" t="s">
+      <c r="F44" s="22" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="45" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="46" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="14" t="s">
+      <c r="H44" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="I44" s="27"/>
+      <c r="J44" s="27"/>
+      <c r="K44" s="27"/>
+      <c r="L44" s="27"/>
+      <c r="M44" s="28"/>
+    </row>
+    <row r="45" spans="1:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="8"/>
+      <c r="B45" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D45" s="9">
+        <v>6</v>
+      </c>
+      <c r="E45" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F45" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="H45" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="I45" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="J45" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="K45" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="L45" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="M45" s="13" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H46" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I46" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J46" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="K46" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="L46" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="M46" s="7" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="B46" s="15"/>
-      <c r="C46" s="15"/>
-      <c r="D46" s="15"/>
-      <c r="E46" s="15"/>
-      <c r="F46" s="16"/>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A47" s="6" t="s">
+      <c r="B47" s="27"/>
+      <c r="C47" s="27"/>
+      <c r="D47" s="27"/>
+      <c r="E47" s="27"/>
+      <c r="F47" s="28"/>
+      <c r="H47" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I47" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="J47" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="K47" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="L47" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="M47" s="10" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A48" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B47" s="6" t="s">
+      <c r="B48" s="6" t="s">
         <v>50</v>
-      </c>
-      <c r="C47" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="D47" s="6">
-        <v>2</v>
-      </c>
-      <c r="E47" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F47" s="33" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A48" s="6"/>
-      <c r="B48" s="6" t="s">
-        <v>55</v>
       </c>
       <c r="C48" s="6" t="s">
         <v>54</v>
       </c>
       <c r="D48" s="6">
+        <v>2</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F48" s="25" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49" s="6"/>
+      <c r="B49" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D49" s="6">
         <v>100</v>
       </c>
-      <c r="E48" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F48" s="33" t="s">
+      <c r="E49" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F49" s="25" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="50" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="23" t="s">
+    <row r="50" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="51" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="B50" s="24"/>
-      <c r="C50" s="24"/>
-      <c r="D50" s="24"/>
-      <c r="E50" s="24"/>
-      <c r="F50" s="25"/>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="11" t="s">
+      <c r="B51" s="18"/>
+      <c r="C51" s="18"/>
+      <c r="D51" s="18"/>
+      <c r="E51" s="18"/>
+      <c r="F51" s="19"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B51" s="12" t="s">
+      <c r="B52" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="C51" s="12" t="s">
+      <c r="C52" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D51" s="12">
+      <c r="D52" s="12">
         <v>2</v>
       </c>
-      <c r="E51" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="F51" s="32" t="s">
+      <c r="E52" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F52" s="24" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="8"/>
-      <c r="B52" s="9" t="s">
+    <row r="53" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="8"/>
+      <c r="B53" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="C52" s="9" t="s">
+      <c r="C53" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D52" s="9">
+      <c r="D53" s="9">
         <v>100</v>
       </c>
-      <c r="E52" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F52" s="30" t="s">
+      <c r="E53" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F53" s="22" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="54" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="14" t="s">
+    <row r="54" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="55" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="B54" s="15"/>
-      <c r="C54" s="15"/>
-      <c r="D54" s="15"/>
-      <c r="E54" s="15"/>
-      <c r="F54" s="16"/>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="11" t="s">
+      <c r="B55" s="15"/>
+      <c r="C55" s="15"/>
+      <c r="D55" s="15"/>
+      <c r="E55" s="15"/>
+      <c r="F55" s="16"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B55" s="12" t="s">
+      <c r="B56" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C55" s="12" t="s">
+      <c r="C56" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D55" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E55" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="F55" s="32" t="s">
+      <c r="D56" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E56" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F56" s="24" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="5" t="s">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B56" s="6" t="s">
+      <c r="B57" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="C56" s="6" t="s">
+      <c r="C57" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D56" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E56" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F56" s="29" t="s">
+      <c r="D57" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E57" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F57" s="21" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="5"/>
-      <c r="B57" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="C57" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D57" s="6">
-        <v>100</v>
-      </c>
-      <c r="E57" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F57" s="29" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="5"/>
       <c r="B58" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D58" s="6">
+        <v>100</v>
+      </c>
+      <c r="E58" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F58" s="21" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A59" s="5"/>
+      <c r="B59" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="C58" s="6" t="s">
+      <c r="C59" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="D58" s="6" t="s">
+      <c r="D59" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="E58" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F58" s="29" t="s">
+      <c r="E59" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F59" s="21" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="8"/>
-      <c r="B59" s="9" t="s">
+    <row r="60" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="8"/>
+      <c r="B60" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="C59" s="9" t="s">
+      <c r="C60" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="D59" s="9" t="s">
+      <c r="D60" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="E59" s="9" t="s">
+      <c r="E60" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="F59" s="30" t="s">
+      <c r="F60" s="22" t="s">
         <v>123</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="26">
+  <mergeCells count="25">
+    <mergeCell ref="H44:M44"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="A40:F40"/>
+    <mergeCell ref="A47:F47"/>
     <mergeCell ref="H34:M34"/>
     <mergeCell ref="H7:M7"/>
     <mergeCell ref="I1:I2"/>
@@ -2724,19 +2838,6 @@
     <mergeCell ref="H21:M21"/>
     <mergeCell ref="H25:M25"/>
     <mergeCell ref="H29:M29"/>
-    <mergeCell ref="A25:F25"/>
-    <mergeCell ref="A40:F40"/>
-    <mergeCell ref="A46:F46"/>
-    <mergeCell ref="A50:F50"/>
-    <mergeCell ref="A54:F54"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A16:F16"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B5" location="Hoja1!H3" display="Tipo_perfil_id" xr:uid="{CA37F09A-22A1-4F1A-819B-ED6B932C5FBE}"/>
@@ -2749,13 +2850,14 @@
     <hyperlink ref="B30" location="Hoja1!A40" display="Direccion_id" xr:uid="{DE1BB081-8926-453E-ABB9-E06AD212AC92}"/>
     <hyperlink ref="B42" location="Hoja1!A46" display="Pais_id" xr:uid="{181CFE4B-A23F-457C-B0D7-5F272302931B}"/>
     <hyperlink ref="B43" location="Hoja1!A51" display="Ciudad_id" xr:uid="{F8E36C30-683A-48B0-A36D-094549B59448}"/>
-    <hyperlink ref="B56" location="Hoja1!H25" display="Categoria_id" xr:uid="{BBDEB5D6-12CD-48CC-8607-2B78C8B60F74}"/>
+    <hyperlink ref="B57" location="Hoja1!H25" display="Categoria_id" xr:uid="{BBDEB5D6-12CD-48CC-8607-2B78C8B60F74}"/>
     <hyperlink ref="I9" location="Hoja1!A3" display="Perfil_id" xr:uid="{35D690A5-7817-452B-8DCC-84CA6725742A}"/>
     <hyperlink ref="I10" location="Hoja1!A54" display="Producto_id" xr:uid="{D2A3658B-7E79-41DA-B5A9-6F50B2795B9E}"/>
     <hyperlink ref="I16" location="Hoja1!A16" display="Cuenta_id" xr:uid="{0CC5A4B8-ABE8-45AC-A6BA-D5EA92D6C023}"/>
     <hyperlink ref="I17" location="Hoja1!A3" display="Perfil_id" xr:uid="{69B1FABF-5747-4E6C-888E-3072F591A60E}"/>
     <hyperlink ref="I31" location="Hoja1!H25" display="Categoria_id" xr:uid="{CA8C0105-591F-48D2-9E8C-2FF4D4138114}"/>
     <hyperlink ref="I36" location="Hoja1!A54" display="Producto_id" xr:uid="{A399E3E6-DEBF-4F25-B6E6-22773C1A9708}"/>
+    <hyperlink ref="I46" location="Hoja1!H25" display="Categoria_id" xr:uid="{8B66F74C-5403-4339-B234-CA260454540F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Diccionario_Tienda.xlsx
+++ b/Diccionario_Tienda.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Intec\Desarrollo web\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabri\Documentos\INTEC\CLASS\TRIMESTRE MAYO-JULIO 2023\Desarrollo Web\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8315C17-B173-4C2A-9E42-2D8EEEBFC3E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D915F5C-2EE0-4824-90C4-DDAD6FF6334F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{651A6F36-3FA8-4EC7-93B5-9A6FC19A9126}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{651A6F36-3FA8-4EC7-93B5-9A6FC19A9126}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="151">
   <si>
     <t>Perfil</t>
   </si>
@@ -155,9 +155,6 @@
     <t xml:space="preserve">Pedido </t>
   </si>
   <si>
-    <t>Narchar</t>
-  </si>
-  <si>
     <t>Precio_total</t>
   </si>
   <si>
@@ -489,6 +486,9 @@
   </si>
   <si>
     <t>Comentario_Producto</t>
+  </si>
+  <si>
+    <t>Char</t>
   </si>
 </sst>
 </file>
@@ -557,7 +557,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -821,11 +821,83 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -845,26 +917,44 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -875,6 +965,24 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -884,55 +992,13 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1249,102 +1315,102 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A37F18E-A075-46F7-8A76-AC1CF288C297}">
-  <dimension ref="A1:M60"/>
+  <dimension ref="A1:M61"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I43" sqref="I43"/>
+      <selection pane="bottomLeft" activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="53.6640625" style="23" customWidth="1"/>
-    <col min="7" max="7" width="3.6640625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="8.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.21875" style="2" customWidth="1"/>
-    <col min="10" max="10" width="19.33203125" style="2" customWidth="1"/>
-    <col min="11" max="11" width="12.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="42.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="11.44140625" style="2"/>
+    <col min="1" max="1" width="8.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="53.7109375" style="14" customWidth="1"/>
+    <col min="7" max="7" width="3.7109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="8.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.28515625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="19.28515625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="12.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="42.7109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A1" s="33" t="s">
+    <row r="1" spans="1:13" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="E1" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="35" t="s">
+      <c r="F1" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="33" t="s">
+      <c r="H1" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="29" t="s">
+      <c r="I1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="29" t="s">
+      <c r="J1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="29" t="s">
+      <c r="K1" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="29" t="s">
+      <c r="L1" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="M1" s="31" t="s">
+      <c r="M1" s="27" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="1" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="34"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="36"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="32"/>
-    </row>
-    <row r="3" spans="1:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="26" t="s">
+    <row r="2" spans="1:13" s="1" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="24"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="28"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="28"/>
+    </row>
+    <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="28"/>
-      <c r="H3" s="26" t="s">
-        <v>87</v>
-      </c>
-      <c r="I3" s="27"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="27"/>
-      <c r="L3" s="27"/>
-      <c r="M3" s="28"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="22"/>
+      <c r="H3" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="22"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -1360,29 +1426,29 @@
       <c r="E4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="H4" s="11" t="s">
+      <c r="F4" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="H4" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="12" t="s">
+      <c r="I4" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="J4" s="12" t="s">
+      <c r="J4" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="K4" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="L4" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="M4" s="13" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K4" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="L4" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="M4" s="15" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>10</v>
       </c>
@@ -1398,27 +1464,27 @@
       <c r="E5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="21" t="s">
-        <v>130</v>
-      </c>
-      <c r="H5" s="8"/>
-      <c r="I5" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="J5" s="9" t="s">
+      <c r="F5" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="H5" s="7"/>
+      <c r="I5" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="J5" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="K5" s="9">
+      <c r="K5" s="8">
         <v>10</v>
       </c>
-      <c r="L5" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="M5" s="10" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L5" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="M5" s="13" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5"/>
       <c r="B6" s="6" t="s">
         <v>12</v>
@@ -1432,11 +1498,11 @@
       <c r="E6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="21" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F6" s="12" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5"/>
       <c r="B7" s="6" t="s">
         <v>14</v>
@@ -1450,19 +1516,19 @@
       <c r="E7" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="21" t="s">
-        <v>89</v>
-      </c>
-      <c r="H7" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="I7" s="27"/>
-      <c r="J7" s="27"/>
-      <c r="K7" s="27"/>
-      <c r="L7" s="27"/>
-      <c r="M7" s="28"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="F7" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="H7" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="22"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="6" t="s">
         <v>16</v>
@@ -1476,14 +1542,14 @@
       <c r="E8" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="21" t="s">
-        <v>90</v>
+      <c r="F8" s="12" t="s">
+        <v>89</v>
       </c>
       <c r="H8" s="5" t="s">
         <v>6</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J8" s="6" t="s">
         <v>27</v>
@@ -1494,11 +1560,11 @@
       <c r="L8" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="M8" s="7" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M8" s="12" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="6" t="s">
         <v>18</v>
@@ -1512,8 +1578,8 @@
       <c r="E9" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="21" t="s">
-        <v>91</v>
+      <c r="F9" s="12" t="s">
+        <v>90</v>
       </c>
       <c r="H9" s="5" t="s">
         <v>10</v>
@@ -1530,11 +1596,11 @@
       <c r="L9" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="M9" s="7" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M9" s="12" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="6" t="s">
         <v>19</v>
@@ -1548,8 +1614,8 @@
       <c r="E10" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="21" t="s">
-        <v>92</v>
+      <c r="F10" s="12" t="s">
+        <v>91</v>
       </c>
       <c r="H10" s="5" t="s">
         <v>10</v>
@@ -1566,11 +1632,11 @@
       <c r="L10" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="M10" s="7" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M10" s="12" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="6" t="s">
         <v>20</v>
@@ -1584,27 +1650,27 @@
       <c r="E11" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="21" t="s">
-        <v>93</v>
+      <c r="F11" s="12" t="s">
+        <v>92</v>
       </c>
       <c r="H11" s="5"/>
       <c r="I11" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J11" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="K11" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="K11" s="6" t="s">
-        <v>42</v>
-      </c>
       <c r="L11" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="M11" s="7" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M11" s="12" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
       <c r="B12" s="6" t="s">
         <v>22</v>
@@ -1618,27 +1684,27 @@
       <c r="E12" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F12" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="H12" s="8"/>
-      <c r="I12" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="J12" s="9" t="s">
+      <c r="F12" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="H12" s="7"/>
+      <c r="I12" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="J12" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="K12" s="9">
+      <c r="K12" s="8">
         <v>200</v>
       </c>
-      <c r="L12" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="M12" s="10" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L12" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="M12" s="13" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5"/>
       <c r="B13" s="6" t="s">
         <v>24</v>
@@ -1652,65 +1718,65 @@
       <c r="E13" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F13" s="21" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="8"/>
-      <c r="B14" s="9" t="s">
+      <c r="F13" s="12" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="7"/>
+      <c r="B14" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F14" s="22" t="s">
-        <v>94</v>
-      </c>
-      <c r="H14" s="26" t="s">
+      <c r="D14" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="H14" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="21"/>
+      <c r="M14" s="22"/>
+    </row>
+    <row r="15" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H15" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="I15" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="I14" s="27"/>
-      <c r="J14" s="27"/>
-      <c r="K14" s="27"/>
-      <c r="L14" s="27"/>
-      <c r="M14" s="28"/>
-    </row>
-    <row r="15" spans="1:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H15" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="I15" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="J15" s="12" t="s">
+      <c r="J15" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="K15" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="L15" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="M15" s="13" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="26" t="s">
+      <c r="K15" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="L15" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="M15" s="15" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="27"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="28"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="22"/>
       <c r="H16" s="5" t="s">
         <v>10</v>
       </c>
@@ -1726,28 +1792,28 @@
       <c r="L16" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="M16" s="7" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17" s="11" t="s">
+      <c r="M16" s="12" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="C17" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D17" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E17" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="F17" s="24" t="s">
-        <v>86</v>
+      <c r="D17" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>85</v>
       </c>
       <c r="H17" s="5" t="s">
         <v>10</v>
@@ -1764,11 +1830,11 @@
       <c r="L17" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="M17" s="7" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M17" s="12" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>10</v>
       </c>
@@ -1784,15 +1850,15 @@
       <c r="E18" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F18" s="21" t="s">
-        <v>117</v>
+      <c r="F18" s="12" t="s">
+        <v>116</v>
       </c>
       <c r="H18" s="5"/>
       <c r="I18" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="J18" s="6" t="s">
         <v>68</v>
-      </c>
-      <c r="J18" s="6" t="s">
-        <v>69</v>
       </c>
       <c r="K18" s="6">
         <v>5</v>
@@ -1800,11 +1866,11 @@
       <c r="L18" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="M18" s="7" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M18" s="12" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>10</v>
       </c>
@@ -1820,27 +1886,27 @@
       <c r="E19" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F19" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="H19" s="8"/>
-      <c r="I19" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="J19" s="9" t="s">
+      <c r="F19" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="H19" s="7"/>
+      <c r="I19" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="J19" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="K19" s="9">
+      <c r="K19" s="8">
         <v>200</v>
       </c>
-      <c r="L19" s="9" t="s">
+      <c r="L19" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="M19" s="10" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M19" s="13" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>10</v>
       </c>
@@ -1856,17 +1922,17 @@
       <c r="E20" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F20" s="21" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F20" s="12" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5"/>
       <c r="B21" s="6" t="s">
         <v>33</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>13</v>
+        <v>150</v>
       </c>
       <c r="D21" s="6">
         <v>5</v>
@@ -1874,19 +1940,19 @@
       <c r="E21" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F21" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="H21" s="26" t="s">
-        <v>71</v>
-      </c>
-      <c r="I21" s="27"/>
-      <c r="J21" s="27"/>
-      <c r="K21" s="27"/>
-      <c r="L21" s="27"/>
-      <c r="M21" s="28"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="F21" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="H21" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="I21" s="21"/>
+      <c r="J21" s="21"/>
+      <c r="K21" s="21"/>
+      <c r="L21" s="21"/>
+      <c r="M21" s="22"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="5"/>
       <c r="B22" s="6" t="s">
         <v>25</v>
@@ -1900,120 +1966,120 @@
       <c r="E22" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F22" s="21" t="s">
+      <c r="F22" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="H22" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="I22" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="J22" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="K22" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="L22" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="M22" s="15" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="7"/>
+      <c r="B23" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F23" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="H22" s="11" t="s">
+      <c r="H23" s="7"/>
+      <c r="I23" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="J23" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="K23" s="8">
+        <v>25</v>
+      </c>
+      <c r="L23" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="M23" s="13" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="25" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25" s="21"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="22"/>
+      <c r="H25" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="I25" s="21"/>
+      <c r="J25" s="21"/>
+      <c r="K25" s="21"/>
+      <c r="L25" s="21"/>
+      <c r="M25" s="22"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="I22" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="J22" s="12" t="s">
+      <c r="B26" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C26" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="K22" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="L22" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="M22" s="13" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="8"/>
-      <c r="B23" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F23" s="22" t="s">
-        <v>99</v>
-      </c>
-      <c r="H23" s="8"/>
-      <c r="I23" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="J23" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="K23" s="9">
-        <v>25</v>
-      </c>
-      <c r="L23" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="M23" s="10" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="25" spans="1:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="B25" s="27"/>
-      <c r="C25" s="27"/>
-      <c r="D25" s="27"/>
-      <c r="E25" s="27"/>
-      <c r="F25" s="28"/>
-      <c r="H25" s="26" t="s">
-        <v>73</v>
-      </c>
-      <c r="I25" s="27"/>
-      <c r="J25" s="27"/>
-      <c r="K25" s="27"/>
-      <c r="L25" s="27"/>
-      <c r="M25" s="28"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A26" s="11" t="s">
+      <c r="D26" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F26" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="H26" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B26" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="C26" s="12" t="s">
+      <c r="I26" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="J26" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D26" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E26" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="F26" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="H26" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="I26" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="J26" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="K26" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="L26" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="M26" s="13" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K26" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="L26" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="M26" s="15" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
         <v>10</v>
       </c>
@@ -2029,27 +2095,27 @@
       <c r="E27" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F27" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="H27" s="8"/>
-      <c r="I27" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="J27" s="9" t="s">
+      <c r="F27" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="H27" s="7"/>
+      <c r="I27" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="J27" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="K27" s="9">
+      <c r="K27" s="8">
         <v>50</v>
       </c>
-      <c r="L27" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="M27" s="10" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L27" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="M27" s="13" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
         <v>10</v>
       </c>
@@ -2065,11 +2131,11 @@
       <c r="E28" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F28" s="21" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F28" s="12" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
         <v>10</v>
       </c>
@@ -2085,19 +2151,19 @@
       <c r="E29" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F29" s="21" t="s">
-        <v>134</v>
-      </c>
-      <c r="H29" s="26" t="s">
-        <v>75</v>
-      </c>
-      <c r="I29" s="27"/>
-      <c r="J29" s="27"/>
-      <c r="K29" s="27"/>
-      <c r="L29" s="27"/>
-      <c r="M29" s="28"/>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="F29" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="H29" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="I29" s="21"/>
+      <c r="J29" s="21"/>
+      <c r="K29" s="21"/>
+      <c r="L29" s="21"/>
+      <c r="M29" s="22"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>10</v>
       </c>
@@ -2113,35 +2179,35 @@
       <c r="E30" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F30" s="21" t="s">
-        <v>132</v>
-      </c>
-      <c r="H30" s="11" t="s">
+      <c r="F30" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="H30" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="I30" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="J30" s="12" t="s">
+      <c r="I30" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="J30" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="K30" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="L30" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="M30" s="13" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="K30" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="L30" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="M30" s="15" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
         <v>38</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>39</v>
+        <v>150</v>
       </c>
       <c r="D31" s="6">
         <v>6</v>
@@ -2149,14 +2215,14 @@
       <c r="E31" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F31" s="21" t="s">
-        <v>100</v>
+      <c r="F31" s="12" t="s">
+        <v>99</v>
       </c>
       <c r="H31" s="5" t="s">
         <v>10</v>
       </c>
       <c r="I31" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J31" s="6" t="s">
         <v>27</v>
@@ -2167,128 +2233,128 @@
       <c r="L31" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="M31" s="7" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M31" s="12" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="5"/>
       <c r="B32" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C32" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C32" s="6" t="s">
+      <c r="D32" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="D32" s="6" t="s">
-        <v>42</v>
-      </c>
       <c r="E32" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F32" s="21" t="s">
-        <v>101</v>
-      </c>
-      <c r="H32" s="8"/>
-      <c r="I32" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="J32" s="9" t="s">
+      <c r="F32" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="H32" s="7"/>
+      <c r="I32" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="J32" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="K32" s="9">
+      <c r="K32" s="8">
         <v>50</v>
       </c>
-      <c r="L32" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="M32" s="10" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L32" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="M32" s="13" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="5"/>
       <c r="B33" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C33" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D33" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="D33" s="6" t="s">
-        <v>42</v>
-      </c>
       <c r="E33" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F33" s="21" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F33" s="12" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="5"/>
       <c r="B34" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C34" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D34" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="D34" s="6" t="s">
-        <v>42</v>
-      </c>
       <c r="E34" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F34" s="21" t="s">
-        <v>103</v>
-      </c>
-      <c r="H34" s="26" t="s">
-        <v>78</v>
-      </c>
-      <c r="I34" s="27"/>
-      <c r="J34" s="27"/>
-      <c r="K34" s="27"/>
-      <c r="L34" s="27"/>
-      <c r="M34" s="28"/>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="F34" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="H34" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="I34" s="21"/>
+      <c r="J34" s="21"/>
+      <c r="K34" s="21"/>
+      <c r="L34" s="21"/>
+      <c r="M34" s="22"/>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="5"/>
       <c r="B35" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C35" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D35" s="6" t="s">
         <v>41</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>42</v>
       </c>
       <c r="E35" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F35" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="H35" s="11" t="s">
+      <c r="F35" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="H35" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="I35" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="J35" s="12" t="s">
+      <c r="I35" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="J35" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="K35" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="L35" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="M35" s="13" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="K35" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="L35" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="M35" s="15" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="5"/>
       <c r="B36" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C36" s="6" t="s">
         <v>26</v>
@@ -2299,8 +2365,8 @@
       <c r="E36" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F36" s="21" t="s">
-        <v>105</v>
+      <c r="F36" s="12" t="s">
+        <v>104</v>
       </c>
       <c r="H36" s="5" t="s">
         <v>10</v>
@@ -2317,14 +2383,14 @@
       <c r="L36" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="M36" s="7" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M36" s="12" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="5"/>
       <c r="B37" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C37" s="6" t="s">
         <v>26</v>
@@ -2335,64 +2401,64 @@
       <c r="E37" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F37" s="21" t="s">
-        <v>106</v>
+      <c r="F37" s="12" t="s">
+        <v>105</v>
       </c>
       <c r="H37" s="5"/>
       <c r="I37" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J37" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="K37" s="6" t="s">
-        <v>9</v>
+        <v>150</v>
+      </c>
+      <c r="K37" s="6">
+        <v>8</v>
       </c>
       <c r="L37" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="M37" s="7" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="8"/>
-      <c r="B38" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="C38" s="9" t="s">
+      <c r="M37" s="12" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="7"/>
+      <c r="B38" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C38" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="D38" s="9">
+      <c r="D38" s="8">
         <v>1</v>
       </c>
-      <c r="E38" s="9" t="s">
+      <c r="E38" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="F38" s="22" t="s">
-        <v>107</v>
+      <c r="F38" s="13" t="s">
+        <v>106</v>
       </c>
       <c r="H38" s="5"/>
       <c r="I38" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J38" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K38" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L38" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="M38" s="7" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M38" s="12" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H39" s="5"/>
       <c r="I39" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J39" s="6" t="s">
         <v>28</v>
@@ -2403,22 +2469,22 @@
       <c r="L39" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="M39" s="7" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="B40" s="27"/>
-      <c r="C40" s="27"/>
-      <c r="D40" s="27"/>
-      <c r="E40" s="27"/>
-      <c r="F40" s="28"/>
+      <c r="M39" s="12" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="B40" s="21"/>
+      <c r="C40" s="21"/>
+      <c r="D40" s="21"/>
+      <c r="E40" s="21"/>
+      <c r="F40" s="22"/>
       <c r="H40" s="5"/>
       <c r="I40" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J40" s="6" t="s">
         <v>26</v>
@@ -2429,55 +2495,55 @@
       <c r="L40" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="M40" s="7" t="s">
+      <c r="M40" s="12" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D41" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E41" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F41" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="H41" s="7"/>
+      <c r="I41" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="J41" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="K41" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="L41" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="M41" s="13" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="41" spans="1:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B41" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="C41" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D41" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E41" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="F41" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="H41" s="8"/>
-      <c r="I41" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="J41" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="K41" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="L41" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="M41" s="10" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>13</v>
+        <v>150</v>
       </c>
       <c r="D42" s="6">
         <v>2</v>
@@ -2485,19 +2551,19 @@
       <c r="E42" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F42" s="21" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F42" s="12" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>13</v>
+        <v>150</v>
       </c>
       <c r="D43" s="6">
         <v>2</v>
@@ -2505,73 +2571,73 @@
       <c r="E43" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F43" s="21" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="8"/>
-      <c r="B44" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="C44" s="9" t="s">
+      <c r="F43" s="12" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="5"/>
+      <c r="B44" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C44" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D44" s="9">
+      <c r="D44" s="6">
         <v>200</v>
       </c>
-      <c r="E44" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F44" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="H44" s="26" t="s">
-        <v>150</v>
-      </c>
-      <c r="I44" s="27"/>
-      <c r="J44" s="27"/>
-      <c r="K44" s="27"/>
-      <c r="L44" s="27"/>
-      <c r="M44" s="28"/>
-    </row>
-    <row r="45" spans="1:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="8"/>
-      <c r="B45" s="9" t="s">
+      <c r="E44" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F44" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="H44" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="I44" s="21"/>
+      <c r="J44" s="21"/>
+      <c r="K44" s="21"/>
+      <c r="L44" s="21"/>
+      <c r="M44" s="22"/>
+    </row>
+    <row r="45" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="32"/>
+      <c r="B45" s="33" t="s">
+        <v>145</v>
+      </c>
+      <c r="C45" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="D45" s="33">
+        <v>6</v>
+      </c>
+      <c r="E45" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="F45" s="34" t="s">
         <v>146</v>
       </c>
-      <c r="C45" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D45" s="9">
+      <c r="H45" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E45" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F45" s="22" t="s">
-        <v>147</v>
-      </c>
-      <c r="H45" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="I45" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="J45" s="12" t="s">
+      <c r="I45" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="J45" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="K45" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="L45" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="M45" s="13" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K45" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="L45" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="M45" s="15" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H46" s="5" t="s">
         <v>10</v>
       </c>
@@ -2587,47 +2653,47 @@
       <c r="L46" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="M46" s="7" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="26" t="s">
-        <v>53</v>
-      </c>
-      <c r="B47" s="27"/>
-      <c r="C47" s="27"/>
-      <c r="D47" s="27"/>
-      <c r="E47" s="27"/>
-      <c r="F47" s="28"/>
-      <c r="H47" s="8" t="s">
+      <c r="M46" s="12" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="B47" s="21"/>
+      <c r="C47" s="21"/>
+      <c r="D47" s="21"/>
+      <c r="E47" s="21"/>
+      <c r="F47" s="22"/>
+      <c r="H47" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="I47" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="J47" s="9" t="s">
+      <c r="I47" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="J47" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="K47" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="L47" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="M47" s="10" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="K47" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="L47" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="M47" s="13" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C48" s="6" t="s">
-        <v>54</v>
+        <v>49</v>
+      </c>
+      <c r="C48" s="18" t="s">
+        <v>150</v>
       </c>
       <c r="D48" s="6">
         <v>2</v>
@@ -2635,17 +2701,17 @@
       <c r="E48" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F48" s="25" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F48" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="6"/>
       <c r="B49" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D49" s="6">
         <v>100</v>
@@ -2653,167 +2719,201 @@
       <c r="E49" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F49" s="25" t="s">
+      <c r="F49" s="16" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="51" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="B51" s="30"/>
+      <c r="C51" s="30"/>
+      <c r="D51" s="30"/>
+      <c r="E51" s="30"/>
+      <c r="F51" s="31"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B52" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C52" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="D52" s="10">
+        <v>2</v>
+      </c>
+      <c r="E52" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F52" s="15" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="51" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="17" t="s">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="17"/>
+      <c r="B53" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="D53" s="18">
+        <v>2</v>
+      </c>
+      <c r="E53" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="F53" s="19"/>
+    </row>
+    <row r="54" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="7"/>
+      <c r="B54" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="B51" s="18"/>
-      <c r="C51" s="18"/>
-      <c r="D51" s="18"/>
-      <c r="E51" s="18"/>
-      <c r="F51" s="19"/>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A52" s="11" t="s">
+      <c r="C54" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D54" s="8">
+        <v>100</v>
+      </c>
+      <c r="E54" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F54" s="13" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="56" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="B56" s="30"/>
+      <c r="C56" s="30"/>
+      <c r="D56" s="30"/>
+      <c r="E56" s="30"/>
+      <c r="F56" s="31"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B52" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="C52" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="D52" s="12">
-        <v>2</v>
-      </c>
-      <c r="E52" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="F52" s="24" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="8"/>
-      <c r="B53" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="C53" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D53" s="9">
-        <v>100</v>
-      </c>
-      <c r="E53" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F53" s="22" t="s">
+      <c r="B57" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C57" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D57" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E57" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F57" s="15" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="55" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="14" t="s">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B58" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B55" s="15"/>
-      <c r="C55" s="15"/>
-      <c r="D55" s="15"/>
-      <c r="E55" s="15"/>
-      <c r="F55" s="16"/>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A56" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B56" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="C56" s="12" t="s">
+      <c r="C58" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D56" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E56" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="F56" s="24" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A57" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B57" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="C57" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D57" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E57" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F57" s="21" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A58" s="5"/>
-      <c r="B58" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="C58" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D58" s="6">
-        <v>100</v>
+      <c r="D58" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="E58" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F58" s="21" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F58" s="12" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="5"/>
       <c r="B59" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C59" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D59" s="6">
+        <v>100</v>
+      </c>
+      <c r="E59" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F59" s="12" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="5"/>
+      <c r="B60" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D60" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="D59" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E59" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F59" s="21" t="s">
+      <c r="E60" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F60" s="12" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="7"/>
+      <c r="B61" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D61" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E61" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F61" s="13" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="8"/>
-      <c r="B60" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="C60" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="D60" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="E60" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="F60" s="22" t="s">
-        <v>123</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="25">
+  <mergeCells count="27">
+    <mergeCell ref="A51:F51"/>
+    <mergeCell ref="A56:F56"/>
+    <mergeCell ref="A47:F47"/>
+    <mergeCell ref="H34:M34"/>
+    <mergeCell ref="H7:M7"/>
+    <mergeCell ref="H29:M29"/>
     <mergeCell ref="H44:M44"/>
+    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="A40:F40"/>
+    <mergeCell ref="H3:M3"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="H14:M14"/>
+    <mergeCell ref="H21:M21"/>
+    <mergeCell ref="H25:M25"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="M1:M2"/>
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="A16:F16"/>
     <mergeCell ref="A1:A2"/>
@@ -2822,22 +2922,6 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:F2"/>
-    <mergeCell ref="A25:F25"/>
-    <mergeCell ref="A40:F40"/>
-    <mergeCell ref="A47:F47"/>
-    <mergeCell ref="H34:M34"/>
-    <mergeCell ref="H7:M7"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="L1:L2"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="H3:M3"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="H14:M14"/>
-    <mergeCell ref="H21:M21"/>
-    <mergeCell ref="H25:M25"/>
-    <mergeCell ref="H29:M29"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B5" location="Hoja1!H3" display="Tipo_perfil_id" xr:uid="{CA37F09A-22A1-4F1A-819B-ED6B932C5FBE}"/>
@@ -2850,7 +2934,7 @@
     <hyperlink ref="B30" location="Hoja1!A40" display="Direccion_id" xr:uid="{DE1BB081-8926-453E-ABB9-E06AD212AC92}"/>
     <hyperlink ref="B42" location="Hoja1!A46" display="Pais_id" xr:uid="{181CFE4B-A23F-457C-B0D7-5F272302931B}"/>
     <hyperlink ref="B43" location="Hoja1!A51" display="Ciudad_id" xr:uid="{F8E36C30-683A-48B0-A36D-094549B59448}"/>
-    <hyperlink ref="B57" location="Hoja1!H25" display="Categoria_id" xr:uid="{BBDEB5D6-12CD-48CC-8607-2B78C8B60F74}"/>
+    <hyperlink ref="B58" location="Hoja1!H25" display="Categoria_id" xr:uid="{BBDEB5D6-12CD-48CC-8607-2B78C8B60F74}"/>
     <hyperlink ref="I9" location="Hoja1!A3" display="Perfil_id" xr:uid="{35D690A5-7817-452B-8DCC-84CA6725742A}"/>
     <hyperlink ref="I10" location="Hoja1!A54" display="Producto_id" xr:uid="{D2A3658B-7E79-41DA-B5A9-6F50B2795B9E}"/>
     <hyperlink ref="I16" location="Hoja1!A16" display="Cuenta_id" xr:uid="{0CC5A4B8-ABE8-45AC-A6BA-D5EA92D6C023}"/>

--- a/Diccionario_Tienda.xlsx
+++ b/Diccionario_Tienda.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabri\Documentos\INTEC\CLASS\TRIMESTRE MAYO-JULIO 2023\Desarrollo Web\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D915F5C-2EE0-4824-90C4-DDAD6FF6334F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5430C7D9-E8D4-45BA-9799-A40B726DC7DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{651A6F36-3FA8-4EC7-93B5-9A6FC19A9126}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="152">
   <si>
     <t>Perfil</t>
   </si>
@@ -489,6 +489,9 @@
   </si>
   <si>
     <t>Char</t>
+  </si>
+  <si>
+    <t>ID</t>
   </si>
 </sst>
 </file>
@@ -557,7 +560,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -822,32 +825,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
         <color indexed="64"/>
       </right>
       <top/>
@@ -893,11 +874,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -954,7 +948,19 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -983,23 +989,8 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1315,11 +1306,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A37F18E-A075-46F7-8A76-AC1CF288C297}">
-  <dimension ref="A1:M61"/>
+  <dimension ref="A1:M62"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D53" sqref="D53"/>
+      <pane ySplit="2" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -1341,74 +1332,74 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="E1" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="F1" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="H1" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="25" t="s">
+      <c r="I1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="25" t="s">
+      <c r="J1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="25" t="s">
+      <c r="K1" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="25" t="s">
+      <c r="L1" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="M1" s="27" t="s">
+      <c r="M1" s="31" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="1" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="24"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="28"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="28"/>
+      <c r="A2" s="28"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="32"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="32"/>
     </row>
     <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="22"/>
-      <c r="H3" s="20" t="s">
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="26"/>
+      <c r="H3" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
-      <c r="L3" s="21"/>
-      <c r="M3" s="22"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="26"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -1519,14 +1510,14 @@
       <c r="F7" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="H7" s="20" t="s">
+      <c r="H7" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="21"/>
-      <c r="L7" s="21"/>
-      <c r="M7" s="22"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="26"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
@@ -1739,14 +1730,14 @@
       <c r="F14" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="H14" s="20" t="s">
+      <c r="H14" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="I14" s="21"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="21"/>
-      <c r="L14" s="21"/>
-      <c r="M14" s="22"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="25"/>
+      <c r="M14" s="26"/>
     </row>
     <row r="15" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H15" s="9" t="s">
@@ -1769,14 +1760,14 @@
       </c>
     </row>
     <row r="16" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="20" t="s">
+      <c r="A16" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="21"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="22"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="26"/>
       <c r="H16" s="5" t="s">
         <v>10</v>
       </c>
@@ -1943,14 +1934,14 @@
       <c r="F21" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="H21" s="20" t="s">
+      <c r="H21" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="I21" s="21"/>
-      <c r="J21" s="21"/>
-      <c r="K21" s="21"/>
-      <c r="L21" s="21"/>
-      <c r="M21" s="22"/>
+      <c r="I21" s="25"/>
+      <c r="J21" s="25"/>
+      <c r="K21" s="25"/>
+      <c r="L21" s="25"/>
+      <c r="M21" s="26"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="5"/>
@@ -2024,22 +2015,22 @@
     </row>
     <row r="24" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="25" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="20" t="s">
+      <c r="A25" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="B25" s="21"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="22"/>
-      <c r="H25" s="20" t="s">
+      <c r="B25" s="25"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="26"/>
+      <c r="H25" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="I25" s="21"/>
-      <c r="J25" s="21"/>
-      <c r="K25" s="21"/>
-      <c r="L25" s="21"/>
-      <c r="M25" s="22"/>
+      <c r="I25" s="25"/>
+      <c r="J25" s="25"/>
+      <c r="K25" s="25"/>
+      <c r="L25" s="25"/>
+      <c r="M25" s="26"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
@@ -2154,14 +2145,14 @@
       <c r="F29" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="H29" s="20" t="s">
+      <c r="H29" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="I29" s="21"/>
-      <c r="J29" s="21"/>
-      <c r="K29" s="21"/>
-      <c r="L29" s="21"/>
-      <c r="M29" s="22"/>
+      <c r="I29" s="25"/>
+      <c r="J29" s="25"/>
+      <c r="K29" s="25"/>
+      <c r="L29" s="25"/>
+      <c r="M29" s="26"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
@@ -2306,14 +2297,14 @@
       <c r="F34" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="H34" s="20" t="s">
+      <c r="H34" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="I34" s="21"/>
-      <c r="J34" s="21"/>
-      <c r="K34" s="21"/>
-      <c r="L34" s="21"/>
-      <c r="M34" s="22"/>
+      <c r="I34" s="25"/>
+      <c r="J34" s="25"/>
+      <c r="K34" s="25"/>
+      <c r="L34" s="25"/>
+      <c r="M34" s="26"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="5"/>
@@ -2474,14 +2465,14 @@
       </c>
     </row>
     <row r="40" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="20" t="s">
+      <c r="A40" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="B40" s="21"/>
-      <c r="C40" s="21"/>
-      <c r="D40" s="21"/>
-      <c r="E40" s="21"/>
-      <c r="F40" s="22"/>
+      <c r="B40" s="25"/>
+      <c r="C40" s="25"/>
+      <c r="D40" s="25"/>
+      <c r="E40" s="25"/>
+      <c r="F40" s="26"/>
       <c r="H40" s="5"/>
       <c r="I40" s="6" t="s">
         <v>82</v>
@@ -2592,30 +2583,30 @@
       <c r="F44" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="H44" s="20" t="s">
+      <c r="H44" s="24" t="s">
         <v>149</v>
       </c>
-      <c r="I44" s="21"/>
-      <c r="J44" s="21"/>
-      <c r="K44" s="21"/>
-      <c r="L44" s="21"/>
-      <c r="M44" s="22"/>
+      <c r="I44" s="25"/>
+      <c r="J44" s="25"/>
+      <c r="K44" s="25"/>
+      <c r="L44" s="25"/>
+      <c r="M44" s="26"/>
     </row>
     <row r="45" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="32"/>
-      <c r="B45" s="33" t="s">
+      <c r="A45" s="18"/>
+      <c r="B45" s="19" t="s">
         <v>145</v>
       </c>
-      <c r="C45" s="33" t="s">
+      <c r="C45" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="D45" s="33">
+      <c r="D45" s="19">
         <v>6</v>
       </c>
-      <c r="E45" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="F45" s="34" t="s">
+      <c r="E45" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="F45" s="20" t="s">
         <v>146</v>
       </c>
       <c r="H45" s="9" t="s">
@@ -2658,14 +2649,14 @@
       </c>
     </row>
     <row r="47" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="20" t="s">
+      <c r="A47" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="B47" s="21"/>
-      <c r="C47" s="21"/>
-      <c r="D47" s="21"/>
-      <c r="E47" s="21"/>
-      <c r="F47" s="22"/>
+      <c r="B47" s="25"/>
+      <c r="C47" s="25"/>
+      <c r="D47" s="25"/>
+      <c r="E47" s="25"/>
+      <c r="F47" s="26"/>
       <c r="H47" s="7" t="s">
         <v>10</v>
       </c>
@@ -2692,7 +2683,7 @@
       <c r="B48" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C48" s="18" t="s">
+      <c r="C48" s="17" t="s">
         <v>150</v>
       </c>
       <c r="D48" s="6">
@@ -2725,27 +2716,27 @@
     </row>
     <row r="50" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="51" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="29" t="s">
+      <c r="A51" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="B51" s="30"/>
-      <c r="C51" s="30"/>
-      <c r="D51" s="30"/>
-      <c r="E51" s="30"/>
-      <c r="F51" s="31"/>
+      <c r="B51" s="22"/>
+      <c r="C51" s="22"/>
+      <c r="D51" s="22"/>
+      <c r="E51" s="22"/>
+      <c r="F51" s="23"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B52" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="C52" s="18" t="s">
-        <v>150</v>
-      </c>
-      <c r="D52" s="10">
-        <v>2</v>
+      <c r="B52" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="C52" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D52" s="17" t="s">
+        <v>9</v>
       </c>
       <c r="E52" s="10" t="s">
         <v>15</v>
@@ -2755,155 +2746,170 @@
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="17"/>
-      <c r="B53" s="18" t="s">
-        <v>49</v>
+      <c r="A53" s="6"/>
+      <c r="B53" s="6" t="s">
+        <v>50</v>
       </c>
       <c r="C53" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="D53" s="18">
+      <c r="D53" s="6">
         <v>2</v>
       </c>
-      <c r="E53" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="F53" s="19"/>
-    </row>
-    <row r="54" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="7"/>
-      <c r="B54" s="8" t="s">
+      <c r="E53" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F53" s="6"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="6"/>
+      <c r="B54" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="D54" s="6">
+        <v>2</v>
+      </c>
+      <c r="E54" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F54" s="6"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="6"/>
+      <c r="B55" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="C54" s="8" t="s">
+      <c r="C55" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D54" s="8">
+      <c r="D55" s="6">
         <v>100</v>
       </c>
-      <c r="E54" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F54" s="13" t="s">
+      <c r="E55" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F55" s="6" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="56" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="29" t="s">
+    <row r="56" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="57" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="B56" s="30"/>
-      <c r="C56" s="30"/>
-      <c r="D56" s="30"/>
-      <c r="E56" s="30"/>
-      <c r="F56" s="31"/>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="9" t="s">
+      <c r="B57" s="22"/>
+      <c r="C57" s="22"/>
+      <c r="D57" s="22"/>
+      <c r="E57" s="22"/>
+      <c r="F57" s="23"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B57" s="10" t="s">
+      <c r="B58" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="C57" s="10" t="s">
+      <c r="C58" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D57" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E57" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="F57" s="15" t="s">
+      <c r="D58" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E58" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F58" s="15" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="5" t="s">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B58" s="6" t="s">
+      <c r="B59" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="C58" s="6" t="s">
+      <c r="C59" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D58" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E58" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F58" s="12" t="s">
+      <c r="D59" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E59" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F59" s="12" t="s">
         <v>119</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="5"/>
-      <c r="B59" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="C59" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D59" s="6">
-        <v>100</v>
-      </c>
-      <c r="E59" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F59" s="12" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="5"/>
       <c r="B60" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D60" s="6">
+        <v>100</v>
+      </c>
+      <c r="E60" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F60" s="12" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="5"/>
+      <c r="B61" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="C60" s="6" t="s">
+      <c r="C61" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D60" s="6" t="s">
+      <c r="D61" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E60" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F60" s="12" t="s">
+      <c r="E61" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F61" s="12" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="7"/>
-      <c r="B61" s="8" t="s">
+    <row r="62" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="7"/>
+      <c r="B62" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C61" s="8" t="s">
+      <c r="C62" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="D61" s="8" t="s">
+      <c r="D62" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="E61" s="8" t="s">
+      <c r="E62" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="F61" s="13" t="s">
+      <c r="F62" s="13" t="s">
         <v>122</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="A51:F51"/>
-    <mergeCell ref="A56:F56"/>
-    <mergeCell ref="A47:F47"/>
-    <mergeCell ref="H34:M34"/>
-    <mergeCell ref="H7:M7"/>
-    <mergeCell ref="H29:M29"/>
-    <mergeCell ref="H44:M44"/>
-    <mergeCell ref="A25:F25"/>
-    <mergeCell ref="A40:F40"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
     <mergeCell ref="H3:M3"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="H14:M14"/>
@@ -2914,14 +2920,15 @@
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="L1:L2"/>
     <mergeCell ref="M1:M2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A16:F16"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="A51:F51"/>
+    <mergeCell ref="A57:F57"/>
+    <mergeCell ref="A47:F47"/>
+    <mergeCell ref="H34:M34"/>
+    <mergeCell ref="H7:M7"/>
+    <mergeCell ref="H29:M29"/>
+    <mergeCell ref="H44:M44"/>
+    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="A40:F40"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B5" location="Hoja1!H3" display="Tipo_perfil_id" xr:uid="{CA37F09A-22A1-4F1A-819B-ED6B932C5FBE}"/>
@@ -2934,7 +2941,7 @@
     <hyperlink ref="B30" location="Hoja1!A40" display="Direccion_id" xr:uid="{DE1BB081-8926-453E-ABB9-E06AD212AC92}"/>
     <hyperlink ref="B42" location="Hoja1!A46" display="Pais_id" xr:uid="{181CFE4B-A23F-457C-B0D7-5F272302931B}"/>
     <hyperlink ref="B43" location="Hoja1!A51" display="Ciudad_id" xr:uid="{F8E36C30-683A-48B0-A36D-094549B59448}"/>
-    <hyperlink ref="B58" location="Hoja1!H25" display="Categoria_id" xr:uid="{BBDEB5D6-12CD-48CC-8607-2B78C8B60F74}"/>
+    <hyperlink ref="B59" location="Hoja1!H25" display="Categoria_id" xr:uid="{BBDEB5D6-12CD-48CC-8607-2B78C8B60F74}"/>
     <hyperlink ref="I9" location="Hoja1!A3" display="Perfil_id" xr:uid="{35D690A5-7817-452B-8DCC-84CA6725742A}"/>
     <hyperlink ref="I10" location="Hoja1!A54" display="Producto_id" xr:uid="{D2A3658B-7E79-41DA-B5A9-6F50B2795B9E}"/>
     <hyperlink ref="I16" location="Hoja1!A16" display="Cuenta_id" xr:uid="{0CC5A4B8-ABE8-45AC-A6BA-D5EA92D6C023}"/>
